--- a/stock_historical_data/60m/BETA-SM.NS.xlsx
+++ b/stock_historical_data/60m/BETA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1604"/>
+  <dimension ref="A1:Q1611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84843,7 +84843,9 @@
       <c r="P1592" t="n">
         <v>0</v>
       </c>
-      <c r="Q1592" t="inlineStr"/>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -84894,7 +84896,9 @@
       <c r="P1593" t="n">
         <v>0</v>
       </c>
-      <c r="Q1593" t="inlineStr"/>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -84945,7 +84949,9 @@
       <c r="P1594" t="n">
         <v>0</v>
       </c>
-      <c r="Q1594" t="inlineStr"/>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -84996,7 +85002,9 @@
       <c r="P1595" t="n">
         <v>0</v>
       </c>
-      <c r="Q1595" t="inlineStr"/>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -85047,7 +85055,9 @@
       <c r="P1596" t="n">
         <v>0</v>
       </c>
-      <c r="Q1596" t="inlineStr"/>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
@@ -85098,7 +85108,9 @@
       <c r="P1597" t="n">
         <v>0</v>
       </c>
-      <c r="Q1597" t="inlineStr"/>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -85149,7 +85161,9 @@
       <c r="P1598" t="n">
         <v>0</v>
       </c>
-      <c r="Q1598" t="inlineStr"/>
+      <c r="Q1598" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -85200,7 +85214,9 @@
       <c r="P1599" t="n">
         <v>2</v>
       </c>
-      <c r="Q1599" t="inlineStr"/>
+      <c r="Q1599" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -85251,7 +85267,9 @@
       <c r="P1600" t="n">
         <v>0</v>
       </c>
-      <c r="Q1600" t="inlineStr"/>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -85302,7 +85320,9 @@
       <c r="P1601" t="n">
         <v>0</v>
       </c>
-      <c r="Q1601" t="inlineStr"/>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -85353,7 +85373,9 @@
       <c r="P1602" t="n">
         <v>0</v>
       </c>
-      <c r="Q1602" t="inlineStr"/>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -85404,7 +85426,9 @@
       <c r="P1603" t="n">
         <v>0</v>
       </c>
-      <c r="Q1603" t="inlineStr"/>
+      <c r="Q1603" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -85455,7 +85479,366 @@
       <c r="P1604" t="n">
         <v>0</v>
       </c>
-      <c r="Q1604" t="inlineStr"/>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45681.38541666666</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>1860.300048828125</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>1860.5</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>1860.300048828125</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>1860.5</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>200</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>1901</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>1888</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>900</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>1841.400024414062</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>1841.400024414062</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>200</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>1856</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>1856</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>1856</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>1856</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>200</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/BETA-SM.NS.xlsx
+++ b/stock_historical_data/60m/BETA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1625"/>
+  <dimension ref="A1:Q1639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32477,7 +32477,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -57495,7 +57495,9 @@
       <c r="P1076" t="n">
         <v>0</v>
       </c>
-      <c r="Q1076" t="inlineStr"/>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -85954,7 +85956,9 @@
       <c r="P1613" t="n">
         <v>0</v>
       </c>
-      <c r="Q1613" t="inlineStr"/>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -86005,7 +86009,9 @@
       <c r="P1614" t="n">
         <v>0</v>
       </c>
-      <c r="Q1614" t="inlineStr"/>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -86056,7 +86062,9 @@
       <c r="P1615" t="n">
         <v>2</v>
       </c>
-      <c r="Q1615" t="inlineStr"/>
+      <c r="Q1615" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -86107,7 +86115,9 @@
       <c r="P1616" t="n">
         <v>0</v>
       </c>
-      <c r="Q1616" t="inlineStr"/>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -86158,7 +86168,9 @@
       <c r="P1617" t="n">
         <v>0</v>
       </c>
-      <c r="Q1617" t="inlineStr"/>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -86209,7 +86221,9 @@
       <c r="P1618" t="n">
         <v>0</v>
       </c>
-      <c r="Q1618" t="inlineStr"/>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -86252,7 +86266,7 @@
         <v>5</v>
       </c>
       <c r="N1619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1619" t="n">
         <v>0</v>
@@ -86260,7 +86274,9 @@
       <c r="P1619" t="n">
         <v>0</v>
       </c>
-      <c r="Q1619" t="inlineStr"/>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -86311,7 +86327,9 @@
       <c r="P1620" t="n">
         <v>0</v>
       </c>
-      <c r="Q1620" t="inlineStr"/>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -86362,7 +86380,9 @@
       <c r="P1621" t="n">
         <v>0</v>
       </c>
-      <c r="Q1621" t="inlineStr"/>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -86413,7 +86433,9 @@
       <c r="P1622" t="n">
         <v>0</v>
       </c>
-      <c r="Q1622" t="inlineStr"/>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -86464,7 +86486,9 @@
       <c r="P1623" t="n">
         <v>0</v>
       </c>
-      <c r="Q1623" t="inlineStr"/>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -86515,7 +86539,9 @@
       <c r="P1624" t="n">
         <v>0</v>
       </c>
-      <c r="Q1624" t="inlineStr"/>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -86566,7 +86592,723 @@
       <c r="P1625" t="n">
         <v>0</v>
       </c>
-      <c r="Q1625" t="inlineStr"/>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>1824</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>1871</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>1824</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>1868</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>1866.349975585938</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>1866.349975585938</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>1859.400024414062</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>1859.400024414062</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>1875</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>1898.949951171875</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>1925</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>1925</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>1925</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>1921.300048828125</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>1903</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>1920.550048828125</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>400</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>1915.5</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>1915.5</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>1903</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>1910.5</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>200</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>1948.75</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>1984.949951171875</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>1984.949951171875</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>1960</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>1960.099975585938</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>1948</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>1970</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>200</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>1970</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>1970</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>1958.5</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>1978</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>1956</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>1978</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>1977.75</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>1977.75</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>400</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>1993.949951171875</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>1993.949951171875</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>1983.800048828125</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>400</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/BETA-SM.NS.xlsx
+++ b/stock_historical_data/60m/BETA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1639"/>
+  <dimension ref="A1:Q1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -6242,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="P207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q207" t="n">
         <v>0</v>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="P217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q217" t="n">
         <v>0</v>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="P232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q232" t="n">
         <v>0</v>
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="P256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q256" t="n">
         <v>0</v>
@@ -14669,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="P268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q268" t="n">
         <v>0</v>
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="P274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q274" t="n">
         <v>0</v>
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -17478,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="P321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q321" t="n">
         <v>0</v>
@@ -18220,7 +18220,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="P382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q382" t="n">
         <v>0</v>
@@ -21082,7 +21082,7 @@
         <v>2</v>
       </c>
       <c r="P389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q389" t="n">
         <v>2</v>
@@ -21400,7 +21400,7 @@
         <v>0</v>
       </c>
       <c r="P395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q395" t="n">
         <v>0</v>
@@ -23361,7 +23361,7 @@
         <v>0</v>
       </c>
       <c r="P432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q432" t="n">
         <v>0</v>
@@ -25269,7 +25269,7 @@
         <v>2</v>
       </c>
       <c r="P468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q468" t="n">
         <v>2</v>
@@ -26753,7 +26753,7 @@
         <v>2</v>
       </c>
       <c r="P496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q496" t="n">
         <v>2</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="P511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q511" t="n">
         <v>0</v>
@@ -32477,7 +32477,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -86645,7 +86645,9 @@
       <c r="P1626" t="n">
         <v>0</v>
       </c>
-      <c r="Q1626" t="inlineStr"/>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -86696,7 +86698,9 @@
       <c r="P1627" t="n">
         <v>0</v>
       </c>
-      <c r="Q1627" t="inlineStr"/>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -86747,7 +86751,9 @@
       <c r="P1628" t="n">
         <v>0</v>
       </c>
-      <c r="Q1628" t="inlineStr"/>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -86798,7 +86804,9 @@
       <c r="P1629" t="n">
         <v>0</v>
       </c>
-      <c r="Q1629" t="inlineStr"/>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -86849,7 +86857,9 @@
       <c r="P1630" t="n">
         <v>0</v>
       </c>
-      <c r="Q1630" t="inlineStr"/>
+      <c r="Q1630" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -86900,7 +86910,9 @@
       <c r="P1631" t="n">
         <v>0</v>
       </c>
-      <c r="Q1631" t="inlineStr"/>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -86951,7 +86963,9 @@
       <c r="P1632" t="n">
         <v>0</v>
       </c>
-      <c r="Q1632" t="inlineStr"/>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
@@ -87002,7 +87016,9 @@
       <c r="P1633" t="n">
         <v>0</v>
       </c>
-      <c r="Q1633" t="inlineStr"/>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
@@ -87053,7 +87069,9 @@
       <c r="P1634" t="n">
         <v>0</v>
       </c>
-      <c r="Q1634" t="inlineStr"/>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -87104,7 +87122,9 @@
       <c r="P1635" t="n">
         <v>0</v>
       </c>
-      <c r="Q1635" t="inlineStr"/>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -87155,7 +87175,9 @@
       <c r="P1636" t="n">
         <v>0</v>
       </c>
-      <c r="Q1636" t="inlineStr"/>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -87206,7 +87228,9 @@
       <c r="P1637" t="n">
         <v>0</v>
       </c>
-      <c r="Q1637" t="inlineStr"/>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -87257,7 +87281,9 @@
       <c r="P1638" t="n">
         <v>0</v>
       </c>
-      <c r="Q1638" t="inlineStr"/>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -87308,7 +87334,723 @@
       <c r="P1639" t="n">
         <v>0</v>
       </c>
-      <c r="Q1639" t="inlineStr"/>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>1954.949951171875</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>1856.599975585938</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>1897.800048828125</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>1860.099975585938</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>1894.949951171875</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>1893.949951171875</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>1893.900024414062</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>1893.900024414062</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>1854.25</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>900</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>1889.949951171875</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>1863.050048828125</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>1888</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>1888</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>1873.050048828125</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>1904.949951171875</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>1881</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>1883.650024414062</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>400</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>2079.949951171875</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>2079.949951171875</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>2005.050048828125</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>2030.050048828125</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>2035.900024414062</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>2059</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>2039.800048828125</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>2039.800048828125</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>2040.5</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45691.51041666666</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>2043.050048828125</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>2076.949951171875</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>2051.050048828125</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>2076.949951171875</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45691.59375</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>2067.60009765625</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>2042</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>2066</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>2070</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>2048.5</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>2058.75</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/BETA-SM.NS.xlsx
+++ b/stock_historical_data/60m/BETA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1653"/>
+  <dimension ref="A1:Q1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87387,7 +87387,9 @@
       <c r="P1640" t="n">
         <v>0</v>
       </c>
-      <c r="Q1640" t="inlineStr"/>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -87438,7 +87440,9 @@
       <c r="P1641" t="n">
         <v>0</v>
       </c>
-      <c r="Q1641" t="inlineStr"/>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -87489,7 +87493,9 @@
       <c r="P1642" t="n">
         <v>0</v>
       </c>
-      <c r="Q1642" t="inlineStr"/>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -87540,7 +87546,9 @@
       <c r="P1643" t="n">
         <v>0</v>
       </c>
-      <c r="Q1643" t="inlineStr"/>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -87591,7 +87599,9 @@
       <c r="P1644" t="n">
         <v>0</v>
       </c>
-      <c r="Q1644" t="inlineStr"/>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -87642,7 +87652,9 @@
       <c r="P1645" t="n">
         <v>0</v>
       </c>
-      <c r="Q1645" t="inlineStr"/>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -87693,23 +87705,25 @@
       <c r="P1646" t="n">
         <v>0</v>
       </c>
-      <c r="Q1646" t="inlineStr"/>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
-        <v>45691.38541666666</v>
+        <v>45689.63541666666</v>
       </c>
       <c r="B1647" t="n">
-        <v>2079.949951171875</v>
+        <v>1993.699951171875</v>
       </c>
       <c r="C1647" t="n">
-        <v>2079.949951171875</v>
+        <v>1993.699951171875</v>
       </c>
       <c r="D1647" t="n">
-        <v>2005.050048828125</v>
+        <v>1993.699951171875</v>
       </c>
       <c r="E1647" t="n">
-        <v>2030.050048828125</v>
+        <v>1993.699951171875</v>
       </c>
       <c r="F1647" t="n">
         <v>0</v>
@@ -87721,10 +87735,10 @@
         <v>2</v>
       </c>
       <c r="I1647" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1647" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1647" t="n">
         <v>15</v>
@@ -87733,7 +87747,7 @@
         <v>0</v>
       </c>
       <c r="M1647" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1647" t="n">
         <v>0</v>
@@ -87748,22 +87762,22 @@
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
-        <v>45691.42708333334</v>
+        <v>45691.38541666666</v>
       </c>
       <c r="B1648" t="n">
-        <v>2035.900024414062</v>
+        <v>2079.949951171875</v>
       </c>
       <c r="C1648" t="n">
-        <v>2059</v>
+        <v>2079.949951171875</v>
       </c>
       <c r="D1648" t="n">
-        <v>2006</v>
+        <v>2005.050048828125</v>
       </c>
       <c r="E1648" t="n">
-        <v>2020</v>
+        <v>2030.050048828125</v>
       </c>
       <c r="F1648" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G1648" t="n">
         <v>2025</v>
@@ -87775,7 +87789,7 @@
         <v>3</v>
       </c>
       <c r="J1648" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1648" t="n">
         <v>15</v>
@@ -87787,7 +87801,7 @@
         <v>6</v>
       </c>
       <c r="N1648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1648" t="n">
         <v>0</v>
@@ -87795,26 +87809,28 @@
       <c r="P1648" t="n">
         <v>0</v>
       </c>
-      <c r="Q1648" t="inlineStr"/>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
-        <v>45691.46875</v>
+        <v>45691.42708333334</v>
       </c>
       <c r="B1649" t="n">
-        <v>2039.800048828125</v>
+        <v>2035.900024414062</v>
       </c>
       <c r="C1649" t="n">
-        <v>2050</v>
+        <v>2059</v>
       </c>
       <c r="D1649" t="n">
-        <v>2039.800048828125</v>
+        <v>2006</v>
       </c>
       <c r="E1649" t="n">
-        <v>2040.5</v>
+        <v>2020</v>
       </c>
       <c r="F1649" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="G1649" t="n">
         <v>2025</v>
@@ -87826,7 +87842,7 @@
         <v>3</v>
       </c>
       <c r="J1649" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1649" t="n">
         <v>15</v>
@@ -87846,26 +87862,28 @@
       <c r="P1649" t="n">
         <v>0</v>
       </c>
-      <c r="Q1649" t="inlineStr"/>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
-        <v>45691.51041666666</v>
+        <v>45691.46875</v>
       </c>
       <c r="B1650" t="n">
-        <v>2050</v>
+        <v>2039.800048828125</v>
       </c>
       <c r="C1650" t="n">
         <v>2050</v>
       </c>
       <c r="D1650" t="n">
-        <v>2043.050048828125</v>
+        <v>2039.800048828125</v>
       </c>
       <c r="E1650" t="n">
-        <v>2048</v>
+        <v>2040.5</v>
       </c>
       <c r="F1650" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="G1650" t="n">
         <v>2025</v>
@@ -87877,7 +87895,7 @@
         <v>3</v>
       </c>
       <c r="J1650" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1650" t="n">
         <v>15</v>
@@ -87897,26 +87915,28 @@
       <c r="P1650" t="n">
         <v>0</v>
       </c>
-      <c r="Q1650" t="inlineStr"/>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
-        <v>45691.55208333334</v>
+        <v>45691.51041666666</v>
       </c>
       <c r="B1651" t="n">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="C1651" t="n">
-        <v>2076.949951171875</v>
+        <v>2050</v>
       </c>
       <c r="D1651" t="n">
-        <v>2051.050048828125</v>
+        <v>2043.050048828125</v>
       </c>
       <c r="E1651" t="n">
-        <v>2076.949951171875</v>
+        <v>2048</v>
       </c>
       <c r="F1651" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G1651" t="n">
         <v>2025</v>
@@ -87928,7 +87948,7 @@
         <v>3</v>
       </c>
       <c r="J1651" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1651" t="n">
         <v>15</v>
@@ -87948,26 +87968,28 @@
       <c r="P1651" t="n">
         <v>0</v>
       </c>
-      <c r="Q1651" t="inlineStr"/>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
-        <v>45691.59375</v>
+        <v>45691.55208333334</v>
       </c>
       <c r="B1652" t="n">
-        <v>2042</v>
+        <v>2056</v>
       </c>
       <c r="C1652" t="n">
-        <v>2067.60009765625</v>
+        <v>2076.949951171875</v>
       </c>
       <c r="D1652" t="n">
-        <v>2042</v>
+        <v>2051.050048828125</v>
       </c>
       <c r="E1652" t="n">
-        <v>2066</v>
+        <v>2076.949951171875</v>
       </c>
       <c r="F1652" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="G1652" t="n">
         <v>2025</v>
@@ -87979,7 +88001,7 @@
         <v>3</v>
       </c>
       <c r="J1652" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1652" t="n">
         <v>15</v>
@@ -87999,23 +88021,25 @@
       <c r="P1652" t="n">
         <v>0</v>
       </c>
-      <c r="Q1652" t="inlineStr"/>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
-        <v>45691.63541666666</v>
+        <v>45691.59375</v>
       </c>
       <c r="B1653" t="n">
-        <v>2060</v>
+        <v>2042</v>
       </c>
       <c r="C1653" t="n">
-        <v>2070</v>
+        <v>2067.60009765625</v>
       </c>
       <c r="D1653" t="n">
-        <v>2048.5</v>
+        <v>2042</v>
       </c>
       <c r="E1653" t="n">
-        <v>2058.75</v>
+        <v>2066</v>
       </c>
       <c r="F1653" t="n">
         <v>700</v>
@@ -88030,7 +88054,7 @@
         <v>3</v>
       </c>
       <c r="J1653" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1653" t="n">
         <v>15</v>
@@ -88050,7 +88074,725 @@
       <c r="P1653" t="n">
         <v>0</v>
       </c>
-      <c r="Q1653" t="inlineStr"/>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>2070</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>2048.5</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>2058.75</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45692.38541666666</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>2047.449951171875</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>2079.949951171875</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>2047.449951171875</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>2065</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>2069</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>2069</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>2052</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>2052</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>400</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45692.46875</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>2025.050048828125</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>2059</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>2025.050048828125</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>2045</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45692.51041666666</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>2044</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>2025.300048828125</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45692.55208333334</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>400</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>2017.949951171875</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>2005.050048828125</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>2005.050048828125</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>400</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>2011.099975585938</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>2010.400024414062</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>2010.400024414062</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>200</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>1979</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>1986</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>1974.949951171875</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>1945</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>1945</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>1901.349975585938</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>1929.949951171875</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/BETA-SM.NS.xlsx
+++ b/stock_historical_data/60m/BETA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1667"/>
+  <dimension ref="A1:Q1686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -87758,7 +87758,9 @@
       <c r="P1647" t="n">
         <v>0</v>
       </c>
-      <c r="Q1647" t="inlineStr"/>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -88180,7 +88182,9 @@
       <c r="P1655" t="n">
         <v>0</v>
       </c>
-      <c r="Q1655" t="inlineStr"/>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -88231,7 +88235,9 @@
       <c r="P1656" t="n">
         <v>0</v>
       </c>
-      <c r="Q1656" t="inlineStr"/>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -88282,7 +88288,9 @@
       <c r="P1657" t="n">
         <v>0</v>
       </c>
-      <c r="Q1657" t="inlineStr"/>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -88333,7 +88341,9 @@
       <c r="P1658" t="n">
         <v>0</v>
       </c>
-      <c r="Q1658" t="inlineStr"/>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -88384,7 +88394,9 @@
       <c r="P1659" t="n">
         <v>2</v>
       </c>
-      <c r="Q1659" t="inlineStr"/>
+      <c r="Q1659" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -88435,7 +88447,9 @@
       <c r="P1660" t="n">
         <v>0</v>
       </c>
-      <c r="Q1660" t="inlineStr"/>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -88486,7 +88500,9 @@
       <c r="P1661" t="n">
         <v>0</v>
       </c>
-      <c r="Q1661" t="inlineStr"/>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -88537,7 +88553,9 @@
       <c r="P1662" t="n">
         <v>0</v>
       </c>
-      <c r="Q1662" t="inlineStr"/>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -88588,7 +88606,9 @@
       <c r="P1663" t="n">
         <v>0</v>
       </c>
-      <c r="Q1663" t="inlineStr"/>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -88639,7 +88659,9 @@
       <c r="P1664" t="n">
         <v>0</v>
       </c>
-      <c r="Q1664" t="inlineStr"/>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -88690,7 +88712,9 @@
       <c r="P1665" t="n">
         <v>0</v>
       </c>
-      <c r="Q1665" t="inlineStr"/>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -88741,7 +88765,9 @@
       <c r="P1666" t="n">
         <v>2</v>
       </c>
-      <c r="Q1666" t="inlineStr"/>
+      <c r="Q1666" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -88792,7 +88818,978 @@
       <c r="P1667" t="n">
         <v>0</v>
       </c>
-      <c r="Q1667" t="inlineStr"/>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>1925</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>1891.050048828125</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>1912.550048828125</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>1899.949951171875</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>1899.949951171875</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>1870</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>1895</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>1896</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>1880</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>1893.75</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>1893.699951171875</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>1857.650024414062</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>1891</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>1899.25</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>1899.25</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>1867.900024414062</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>1867.900024414062</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>1899.949951171875</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>1899.949951171875</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>1899.949951171875</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>1899.949951171875</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>1868</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>1860</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>1893.449951171875</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>1893.449951171875</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>1876.599975585938</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>1876.599975585938</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>1830</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>1825</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>1840</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>1857.349975585938</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>1857.349975585938</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>1835</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>1835</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>1835</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>1835</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>1835</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>200</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>1837.5</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>1837.5</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>1815.5</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>1815.5</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>1833</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>1806.599975585938</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>1806.599975585938</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>1808.099975585938</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>1808.099975585938</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>1807.349975585938</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>1807.349975585938</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/BETA-SM.NS.xlsx
+++ b/stock_historical_data/60m/BETA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1686"/>
+  <dimension ref="A1:Q1700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88871,7 +88871,9 @@
       <c r="P1668" t="n">
         <v>0</v>
       </c>
-      <c r="Q1668" t="inlineStr"/>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -88922,7 +88924,9 @@
       <c r="P1669" t="n">
         <v>0</v>
       </c>
-      <c r="Q1669" t="inlineStr"/>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -88973,7 +88977,9 @@
       <c r="P1670" t="n">
         <v>0</v>
       </c>
-      <c r="Q1670" t="inlineStr"/>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -89024,7 +89030,9 @@
       <c r="P1671" t="n">
         <v>0</v>
       </c>
-      <c r="Q1671" t="inlineStr"/>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -89075,7 +89083,9 @@
       <c r="P1672" t="n">
         <v>0</v>
       </c>
-      <c r="Q1672" t="inlineStr"/>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -89126,7 +89136,9 @@
       <c r="P1673" t="n">
         <v>0</v>
       </c>
-      <c r="Q1673" t="inlineStr"/>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -89177,7 +89189,9 @@
       <c r="P1674" t="n">
         <v>0</v>
       </c>
-      <c r="Q1674" t="inlineStr"/>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -89228,7 +89242,9 @@
       <c r="P1675" t="n">
         <v>0</v>
       </c>
-      <c r="Q1675" t="inlineStr"/>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -89279,7 +89295,9 @@
       <c r="P1676" t="n">
         <v>0</v>
       </c>
-      <c r="Q1676" t="inlineStr"/>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -89330,7 +89348,9 @@
       <c r="P1677" t="n">
         <v>0</v>
       </c>
-      <c r="Q1677" t="inlineStr"/>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -89381,7 +89401,9 @@
       <c r="P1678" t="n">
         <v>0</v>
       </c>
-      <c r="Q1678" t="inlineStr"/>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -89432,7 +89454,9 @@
       <c r="P1679" t="n">
         <v>0</v>
       </c>
-      <c r="Q1679" t="inlineStr"/>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -89483,7 +89507,9 @@
       <c r="P1680" t="n">
         <v>0</v>
       </c>
-      <c r="Q1680" t="inlineStr"/>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -89534,7 +89560,9 @@
       <c r="P1681" t="n">
         <v>0</v>
       </c>
-      <c r="Q1681" t="inlineStr"/>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -89585,7 +89613,9 @@
       <c r="P1682" t="n">
         <v>0</v>
       </c>
-      <c r="Q1682" t="inlineStr"/>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -89636,7 +89666,9 @@
       <c r="P1683" t="n">
         <v>0</v>
       </c>
-      <c r="Q1683" t="inlineStr"/>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -89687,7 +89719,9 @@
       <c r="P1684" t="n">
         <v>0</v>
       </c>
-      <c r="Q1684" t="inlineStr"/>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -89738,7 +89772,9 @@
       <c r="P1685" t="n">
         <v>0</v>
       </c>
-      <c r="Q1685" t="inlineStr"/>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -89789,7 +89825,723 @@
       <c r="P1686" t="n">
         <v>0</v>
       </c>
-      <c r="Q1686" t="inlineStr"/>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>1770</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>1788.699951171875</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>1761.150024414062</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>1769.949951171875</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>1769.949951171875</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>1769.949951171875</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>1780</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>400</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>1779</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>1782</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>1765.050048828125</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>1765.050048828125</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>1765</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>1765</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>1761.150024414062</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>1761.150024414062</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>1761.150024414062</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>1761.150024414062</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>1710.050048828125</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>2700</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>1741.349975585938</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>900</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>1741.349975585938</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>1741.349975585938</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>1659</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>1678.949951171875</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>1605.099975585938</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>1652.050048828125</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>1665</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>1681</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>1674.949951171875</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>6100</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>1674</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>1685</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>1674</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>1675</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>1670</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>1684.949951171875</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>1670</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>1675</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>900</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>1661.5</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>1667.25</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>1667.25</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/BETA-SM.NS.xlsx
+++ b/stock_historical_data/60m/BETA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1700"/>
+  <dimension ref="A1:Q1713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -5556,7 +5556,7 @@
         <v>2</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="Q207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -11969,7 +11969,7 @@
         <v>2</v>
       </c>
       <c r="Q217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -12764,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="Q232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -14036,7 +14036,7 @@
         <v>2</v>
       </c>
       <c r="Q256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -14672,7 +14672,7 @@
         <v>2</v>
       </c>
       <c r="Q268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -14990,7 +14990,7 @@
         <v>1</v>
       </c>
       <c r="Q274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -15997,7 +15997,7 @@
         <v>0</v>
       </c>
       <c r="Q293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -17481,7 +17481,7 @@
         <v>2</v>
       </c>
       <c r="Q321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -18223,7 +18223,7 @@
         <v>0</v>
       </c>
       <c r="Q335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -20714,7 +20714,7 @@
         <v>1</v>
       </c>
       <c r="Q382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -21085,7 +21085,7 @@
         <v>0</v>
       </c>
       <c r="Q389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="Q395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -23364,7 +23364,7 @@
         <v>1</v>
       </c>
       <c r="Q432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -25272,7 +25272,7 @@
         <v>0</v>
       </c>
       <c r="Q468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="Q496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -27551,7 +27551,7 @@
         <v>1</v>
       </c>
       <c r="Q511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -32480,7 +32480,7 @@
         <v>0</v>
       </c>
       <c r="Q604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -34282,7 +34282,7 @@
         <v>0</v>
       </c>
       <c r="Q638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -35660,7 +35660,7 @@
         <v>1</v>
       </c>
       <c r="Q664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -44776,7 +44776,7 @@
         <v>0</v>
       </c>
       <c r="Q836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837">
@@ -47903,7 +47903,7 @@
         <v>0</v>
       </c>
       <c r="Q895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -50076,7 +50076,7 @@
         <v>0</v>
       </c>
       <c r="Q936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -52037,7 +52037,7 @@
         <v>2</v>
       </c>
       <c r="Q973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974">
@@ -52832,7 +52832,7 @@
         <v>0</v>
       </c>
       <c r="Q988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989">
@@ -53256,7 +53256,7 @@
         <v>1</v>
       </c>
       <c r="Q996" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997">
@@ -54687,7 +54687,7 @@
         <v>0</v>
       </c>
       <c r="Q1023" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024">
@@ -57284,7 +57284,7 @@
         <v>2</v>
       </c>
       <c r="Q1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -59616,7 +59616,7 @@
         <v>2</v>
       </c>
       <c r="Q1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
@@ -62637,7 +62637,7 @@
         <v>2</v>
       </c>
       <c r="Q1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174">
@@ -64121,7 +64121,7 @@
         <v>0</v>
       </c>
       <c r="Q1201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202">
@@ -64863,7 +64863,7 @@
         <v>2</v>
       </c>
       <c r="Q1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216">
@@ -70004,7 +70004,7 @@
         <v>1</v>
       </c>
       <c r="Q1312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313">
@@ -70746,7 +70746,7 @@
         <v>0</v>
       </c>
       <c r="Q1326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327">
@@ -72866,7 +72866,7 @@
         <v>0</v>
       </c>
       <c r="Q1366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367">
@@ -75092,7 +75092,7 @@
         <v>0</v>
       </c>
       <c r="Q1408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409">
@@ -78961,7 +78961,7 @@
         <v>1</v>
       </c>
       <c r="Q1481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1482">
@@ -79544,7 +79544,7 @@
         <v>0</v>
       </c>
       <c r="Q1492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493">
@@ -80551,7 +80551,7 @@
         <v>0</v>
       </c>
       <c r="Q1511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1512">
@@ -80869,7 +80869,7 @@
         <v>1</v>
       </c>
       <c r="Q1517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1518">
@@ -81982,7 +81982,7 @@
         <v>1</v>
       </c>
       <c r="Q1538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1539">
@@ -82565,7 +82565,7 @@
         <v>0</v>
       </c>
       <c r="Q1549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1550">
@@ -83466,7 +83466,7 @@
         <v>1</v>
       </c>
       <c r="Q1566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1567">
@@ -84314,7 +84314,7 @@
         <v>0</v>
       </c>
       <c r="Q1582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1583">
@@ -84844,7 +84844,7 @@
         <v>1</v>
       </c>
       <c r="Q1592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1593">
@@ -85215,7 +85215,7 @@
         <v>0</v>
       </c>
       <c r="Q1599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1600">
@@ -85480,7 +85480,7 @@
         <v>0</v>
       </c>
       <c r="Q1604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1605">
@@ -86858,7 +86858,7 @@
         <v>0</v>
       </c>
       <c r="Q1630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631">
@@ -89878,7 +89878,9 @@
       <c r="P1687" t="n">
         <v>0</v>
       </c>
-      <c r="Q1687" t="inlineStr"/>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -89929,7 +89931,9 @@
       <c r="P1688" t="n">
         <v>0</v>
       </c>
-      <c r="Q1688" t="inlineStr"/>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -89980,7 +89984,9 @@
       <c r="P1689" t="n">
         <v>0</v>
       </c>
-      <c r="Q1689" t="inlineStr"/>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -90031,7 +90037,9 @@
       <c r="P1690" t="n">
         <v>0</v>
       </c>
-      <c r="Q1690" t="inlineStr"/>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -90082,7 +90090,9 @@
       <c r="P1691" t="n">
         <v>0</v>
       </c>
-      <c r="Q1691" t="inlineStr"/>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -90133,7 +90143,9 @@
       <c r="P1692" t="n">
         <v>0</v>
       </c>
-      <c r="Q1692" t="inlineStr"/>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -90184,7 +90196,9 @@
       <c r="P1693" t="n">
         <v>0</v>
       </c>
-      <c r="Q1693" t="inlineStr"/>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -90227,7 +90241,7 @@
         <v>7</v>
       </c>
       <c r="N1694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1694" t="n">
         <v>0</v>
@@ -90235,7 +90249,9 @@
       <c r="P1694" t="n">
         <v>0</v>
       </c>
-      <c r="Q1694" t="inlineStr"/>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -90286,7 +90302,9 @@
       <c r="P1695" t="n">
         <v>0</v>
       </c>
-      <c r="Q1695" t="inlineStr"/>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -90337,7 +90355,9 @@
       <c r="P1696" t="n">
         <v>0</v>
       </c>
-      <c r="Q1696" t="inlineStr"/>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -90388,7 +90408,9 @@
       <c r="P1697" t="n">
         <v>0</v>
       </c>
-      <c r="Q1697" t="inlineStr"/>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -90439,7 +90461,9 @@
       <c r="P1698" t="n">
         <v>0</v>
       </c>
-      <c r="Q1698" t="inlineStr"/>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -90490,7 +90514,9 @@
       <c r="P1699" t="n">
         <v>0</v>
       </c>
-      <c r="Q1699" t="inlineStr"/>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -90541,7 +90567,672 @@
       <c r="P1700" t="n">
         <v>0</v>
       </c>
-      <c r="Q1700" t="inlineStr"/>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>1745</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>1789.900024414062</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>1745</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>1789</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>1780</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>900</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>1809</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>1780.050048828125</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>1815</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>900</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>1825</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>1825</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>1850.099975585938</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>1850.099975585938</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>1850.099975585938</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>1842</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>1842</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45702.38541666666</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>1815</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>1815</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45702.42708333334</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>1810</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>1810</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45702.46875</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>1801</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>1795</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45702.51041666666</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>1789</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>1789</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>200</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45702.55208333334</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45702.59375</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>1785</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>1751.050048828125</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45702.63541666666</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>1791</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>1779.400024414062</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>1779.400024414062</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
